--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ СХК ОПРО_LAR (Средний LAR(Det))(01.09.2015 23-54-41).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ СХК ОПРО_LAR (Средний LAR(Det))(01.09.2015 23-54-41).xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ОРПО (Средний LAR(Det))\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,13 +157,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -231,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +442,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -484,22 +485,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>3.4490584261660764E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>3.5969372315062441E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>7.0459956576723198E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>1.4736609242856771E-4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>8.973305838429E-5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>2.370991508128577E-4</v>
       </c>
     </row>
@@ -507,22 +508,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>2.9169930085291863E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>3.9255857790356313E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>6.8425787875648183E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1.1768223906429549E-4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>9.5287446489876265E-5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>2.1296968555417175E-4</v>
       </c>
     </row>
@@ -530,22 +531,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>2.6416148681356556E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>3.9763024898008838E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>6.617917357936539E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1.0421597299669032E-4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>9.7705740845137137E-5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2.0192171384182745E-4</v>
       </c>
     </row>
@@ -553,22 +554,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2.6254216722945735E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>4.0422711033469936E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>6.6676927756415674E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1.1873889509020161E-4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.0148291601163358E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2.2022181110183521E-4</v>
       </c>
     </row>
@@ -576,22 +577,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.6081953104080813E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>3.9623880816541723E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>6.5705833920622533E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>1.2545900427408856E-4</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>9.9925698519173577E-5</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2.2538470279326214E-4</v>
       </c>
     </row>
@@ -599,22 +600,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>2.2221515195601736E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>3.5802153005326657E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>5.8023668200928396E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>9.6680562012617423E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>9.8969551864266017E-5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>1.9565011387688344E-4</v>
       </c>
     </row>
@@ -622,22 +623,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.5116731637455607E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>3.5502665156019958E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>5.0619396793475563E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>6.8657982359931102E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>9.1647247167981664E-5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>1.6030522952791275E-4</v>
       </c>
     </row>
@@ -645,22 +646,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>7.9202421513071529E-6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>3.5028294008982237E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>4.2948536160289393E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>2.9499336499612642E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>8.1615557839826615E-5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1.1111489433943925E-4</v>
       </c>
     </row>
@@ -668,22 +669,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>7.3084034234969445E-6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>2.8869992407818705E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>3.6178395831315647E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>3.1748261855322231E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>7.0942713368055165E-5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>1.026909752233774E-4</v>
       </c>
     </row>
@@ -691,22 +692,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>4.8289529600121747E-6</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>1.9975864257751568E-5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>2.4804817217763744E-5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>1.6852526673703494E-5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>5.1306275024532519E-5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>6.8158801698236016E-5</v>
       </c>
     </row>
@@ -714,22 +715,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>2.3550713585729845E-6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>1.2035902252715495E-5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>1.439097361128848E-5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>7.670153749515548E-6</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>3.0578096065051921E-5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>3.8248249814567467E-5</v>
       </c>
     </row>
@@ -737,35 +738,38 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>2.162E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>3.6779999999999997E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>5.8400000000000003E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>9.3140000000000006E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>9.2440000000000003E-5</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>1.8557E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -796,22 +800,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2.2506939531299535E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>6.0062935522279675E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>8.2569875053579213E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>4.9254935126635807E-5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>1.6292408538097795E-4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>2.1217902050761376E-4</v>
       </c>
     </row>
@@ -819,22 +823,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>1.9407007123715147E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>5.8540932443287139E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>7.7947939567002289E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>6.7760618415871126E-5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>1.6649761170236345E-4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>2.3425823011823457E-4</v>
       </c>
     </row>
@@ -842,22 +846,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>1.5903921915331703E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>5.5718221308831176E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>7.1622143224162876E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>4.637638370643947E-5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>1.6884780684520425E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2.1522419055164372E-4</v>
       </c>
     </row>
@@ -865,22 +869,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>1.9277896387097231E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>5.2743896118601246E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>7.2021792505698484E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>4.7831267531843152E-5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.7031633577005065E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2.1814760330189382E-4</v>
       </c>
     </row>
@@ -888,22 +892,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.1652615149307193E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>5.2702054761992044E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>7.4354669911299231E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>5.9777161141933761E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1.686680792045084E-4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2.2844524034644216E-4</v>
       </c>
     </row>
@@ -911,22 +915,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>1.8545972268298755E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>5.8651180256679542E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>7.7197152524978297E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>7.1303605156562941E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>1.6618862271534603E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>2.3749222787190896E-4</v>
       </c>
     </row>
@@ -934,22 +938,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.7201024019005128E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>6.0741089667884784E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>7.7942113686889906E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>8.1562256324358863E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>1.6072031926737533E-4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>2.4228257559173418E-4</v>
       </c>
     </row>
@@ -957,22 +961,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.0957699419778528E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>5.5460267168000899E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>6.6417966587779432E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>4.6021305996531213E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>1.4982008564191728E-4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1.9584139163844849E-4</v>
       </c>
     </row>
@@ -980,22 +984,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>7.3900786127635762E-6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>5.291624260232614E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>6.0306321215089719E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>3.4018459142024387E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>1.3069891062994575E-4</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>1.6471736977197014E-4</v>
       </c>
     </row>
@@ -1003,22 +1007,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>1.074788123167165E-5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>4.1528930849724923E-5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>5.2276812081396573E-5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>5.5816593063839597E-5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>1.0271583230817288E-4</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>1.5853242537201248E-4</v>
       </c>
     </row>
@@ -1026,22 +1030,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>9.2306713584331202E-6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>3.032815912761065E-5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>3.9558830486043768E-5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>1.7114814598000937E-5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>6.4412410390314687E-5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>8.1527224988315624E-5</v>
       </c>
     </row>
@@ -1049,22 +1053,22 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>1.685E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>5.5720000000000002E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>7.2570000000000005E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>5.8799999999999999E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>1.6011000000000001E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>2.1892E-4</v>
       </c>
     </row>
